--- a/chart15/data/細分畜牧.xlsx
+++ b/chart15/data/細分畜牧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="12150" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="12156" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="YourExcelFileName (8)" sheetId="2" r:id="rId1"/>
@@ -954,9 +954,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>586740</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1281,22 +1281,22 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
@@ -1398,7 +1398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -1592,7 +1592,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -1640,7 +1640,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -1786,7 +1786,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -1834,7 +1834,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1882,7 +1882,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -2076,7 +2076,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>30</v>
@@ -2124,7 +2124,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>34</v>
@@ -2270,7 +2270,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>36</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>1</v>
       </c>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
@@ -2420,7 +2420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
         <v>15</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>17</v>
@@ -2614,7 +2614,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
         <v>18</v>
@@ -2662,7 +2662,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
         <v>19</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>20</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
         <v>22</v>
@@ -2808,7 +2808,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -2856,7 +2856,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="2" t="s">
         <v>24</v>
@@ -2904,7 +2904,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="2" t="s">
         <v>25</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
         <v>28</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="2" t="s">
         <v>29</v>
@@ -3098,7 +3098,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="2" t="s">
         <v>30</v>
@@ -3146,7 +3146,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="2" t="s">
         <v>31</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>32</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="2" t="s">
         <v>34</v>
@@ -3292,7 +3292,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>35</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>37</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>1</v>
       </c>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="P47" s="7"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1" t="s">
@@ -3442,7 +3442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>13</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="2" t="s">
         <v>15</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
         <v>16</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="2" t="s">
         <v>17</v>
@@ -3636,7 +3636,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="2" t="s">
         <v>18</v>
@@ -3684,7 +3684,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>20</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="2" t="s">
         <v>22</v>
@@ -3830,7 +3830,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="2" t="s">
         <v>23</v>
@@ -3878,7 +3878,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="2" t="s">
         <v>24</v>
@@ -3926,7 +3926,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="2" t="s">
         <v>25</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="2" t="s">
         <v>28</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="2" t="s">
         <v>29</v>
@@ -4120,7 +4120,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="2" t="s">
         <v>30</v>
@@ -4168,7 +4168,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="2" t="s">
         <v>31</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="2" t="s">
         <v>34</v>
@@ -4314,7 +4314,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>35</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>38</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>1</v>
       </c>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
@@ -4464,7 +4464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>13</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="2" t="s">
         <v>15</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="2" t="s">
         <v>16</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="2" t="s">
         <v>17</v>
@@ -4658,7 +4658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="2" t="s">
         <v>18</v>
@@ -4706,7 +4706,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="2" t="s">
         <v>19</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>20</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="2" t="s">
         <v>22</v>
@@ -4852,7 +4852,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="2" t="s">
         <v>23</v>
@@ -4900,7 +4900,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="2" t="s">
         <v>24</v>
@@ -4948,7 +4948,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="2" t="s">
         <v>25</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>26</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="2" t="s">
         <v>28</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="2" t="s">
         <v>29</v>
@@ -5142,7 +5142,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="2" t="s">
         <v>30</v>
@@ -5190,7 +5190,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="2" t="s">
         <v>31</v>
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>32</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="2" t="s">
         <v>34</v>
@@ -5336,7 +5336,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>35</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>39</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>1</v>
       </c>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="P91" s="7"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="1" t="s">
@@ -5486,7 +5486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>13</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="2" t="s">
         <v>15</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="2" t="s">
         <v>16</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
       <c r="B96" s="2" t="s">
         <v>17</v>
@@ -5680,7 +5680,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="2" t="s">
         <v>18</v>
@@ -5728,7 +5728,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="2" t="s">
         <v>19</v>
@@ -5776,7 +5776,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>20</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="2" t="s">
         <v>22</v>
@@ -5874,7 +5874,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="2" t="s">
         <v>23</v>
@@ -5922,7 +5922,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="2" t="s">
         <v>24</v>
@@ -5970,7 +5970,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="2" t="s">
         <v>25</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>26</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="B105" s="2" t="s">
         <v>28</v>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="2" t="s">
         <v>29</v>
@@ -6164,7 +6164,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="2" t="s">
         <v>30</v>
@@ -6212,7 +6212,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="2" t="s">
         <v>31</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>32</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="2" t="s">
         <v>34</v>
@@ -6358,7 +6358,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>35</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>40</v>
       </c>
@@ -6426,7 +6426,7 @@
       <c r="O112" s="9"/>
       <c r="P112" s="9"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>1</v>
       </c>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="P113" s="7"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="1" t="s">
@@ -6508,7 +6508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>13</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
       <c r="B116" s="2" t="s">
         <v>15</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="2" t="s">
         <v>16</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="2" t="s">
         <v>17</v>
@@ -6702,7 +6702,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="2" t="s">
         <v>18</v>
@@ -6750,7 +6750,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="2" t="s">
         <v>19</v>
@@ -6798,7 +6798,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>20</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="2" t="s">
         <v>22</v>
@@ -6896,7 +6896,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="2" t="s">
         <v>23</v>
@@ -6944,7 +6944,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="2" t="s">
         <v>24</v>
@@ -6992,7 +6992,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
       <c r="B125" s="2" t="s">
         <v>25</v>
@@ -7040,7 +7040,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>26</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
       <c r="B127" s="2" t="s">
         <v>28</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
       <c r="B128" s="2" t="s">
         <v>29</v>
@@ -7186,7 +7186,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
       <c r="B129" s="2" t="s">
         <v>30</v>
@@ -7234,7 +7234,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
       <c r="B130" s="2" t="s">
         <v>31</v>
@@ -7282,7 +7282,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>32</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
       <c r="B132" s="2" t="s">
         <v>34</v>
@@ -7380,7 +7380,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>35</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>41</v>
       </c>
@@ -7448,7 +7448,7 @@
       <c r="O134" s="9"/>
       <c r="P134" s="9"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>1</v>
       </c>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="P135" s="7"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="1" t="s">
@@ -7530,7 +7530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>13</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
       <c r="B138" s="2" t="s">
         <v>15</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
       <c r="B139" s="2" t="s">
         <v>16</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
       <c r="B140" s="2" t="s">
         <v>17</v>
@@ -7724,7 +7724,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
       <c r="B141" s="2" t="s">
         <v>18</v>
@@ -7772,7 +7772,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
       <c r="B142" s="2" t="s">
         <v>19</v>
@@ -7820,7 +7820,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>20</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
       <c r="B144" s="2" t="s">
         <v>22</v>
@@ -7918,7 +7918,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
       <c r="B145" s="2" t="s">
         <v>23</v>
@@ -7966,7 +7966,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
       <c r="B146" s="2" t="s">
         <v>24</v>
@@ -8014,7 +8014,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
       <c r="B147" s="2" t="s">
         <v>25</v>
@@ -8062,7 +8062,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>26</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
       <c r="B149" s="2" t="s">
         <v>28</v>
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
       <c r="B150" s="2" t="s">
         <v>29</v>
@@ -8208,7 +8208,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
       <c r="B151" s="2" t="s">
         <v>30</v>
@@ -8256,7 +8256,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
       <c r="B152" s="2" t="s">
         <v>31</v>
@@ -8304,7 +8304,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>32</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
       <c r="B154" s="2" t="s">
         <v>34</v>
@@ -8402,7 +8402,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>35</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>42</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="O156" s="9"/>
       <c r="P156" s="9"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>1</v>
       </c>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="P157" s="7"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="1" t="s">
@@ -8552,7 +8552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>13</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
       <c r="B160" s="2" t="s">
         <v>15</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
       <c r="B161" s="2" t="s">
         <v>16</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
       <c r="B162" s="2" t="s">
         <v>17</v>
@@ -8746,7 +8746,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
       <c r="B163" s="2" t="s">
         <v>18</v>
@@ -8794,7 +8794,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
       <c r="B164" s="2" t="s">
         <v>19</v>
@@ -8842,7 +8842,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>20</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
       <c r="B166" s="2" t="s">
         <v>22</v>
@@ -8940,7 +8940,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
       <c r="B167" s="2" t="s">
         <v>23</v>
@@ -8988,7 +8988,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
       <c r="B168" s="2" t="s">
         <v>24</v>
@@ -9036,7 +9036,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
       <c r="B169" s="2" t="s">
         <v>25</v>
@@ -9084,7 +9084,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>26</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
       <c r="B171" s="2" t="s">
         <v>28</v>
@@ -9182,7 +9182,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
       <c r="B172" s="2" t="s">
         <v>29</v>
@@ -9230,7 +9230,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
       <c r="B173" s="2" t="s">
         <v>30</v>
@@ -9278,7 +9278,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
       <c r="B174" s="2" t="s">
         <v>31</v>
@@ -9326,7 +9326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>32</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
       <c r="B176" s="2" t="s">
         <v>34</v>
@@ -9424,7 +9424,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>35</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>43</v>
       </c>
@@ -9492,7 +9492,7 @@
       <c r="O178" s="9"/>
       <c r="P178" s="9"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>1</v>
       </c>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="P179" s="7"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="1" t="s">
@@ -9574,7 +9574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>13</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
       <c r="B182" s="2" t="s">
         <v>15</v>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
       <c r="B183" s="2" t="s">
         <v>16</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
       <c r="B184" s="2" t="s">
         <v>17</v>
@@ -9768,7 +9768,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
       <c r="B185" s="2" t="s">
         <v>18</v>
@@ -9816,7 +9816,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
       <c r="B186" s="2" t="s">
         <v>19</v>
@@ -9864,7 +9864,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>20</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
       <c r="B188" s="2" t="s">
         <v>22</v>
@@ -9962,7 +9962,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
       <c r="B189" s="2" t="s">
         <v>23</v>
@@ -10010,7 +10010,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
       <c r="B190" s="2" t="s">
         <v>24</v>
@@ -10058,7 +10058,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
       <c r="B191" s="2" t="s">
         <v>25</v>
@@ -10106,7 +10106,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
         <v>26</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
       <c r="B193" s="2" t="s">
         <v>28</v>
@@ -10204,7 +10204,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
       <c r="B194" s="2" t="s">
         <v>29</v>
@@ -10252,7 +10252,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
       <c r="B195" s="2" t="s">
         <v>30</v>
@@ -10300,7 +10300,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
       <c r="B196" s="2" t="s">
         <v>31</v>
@@ -10348,7 +10348,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>32</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
       <c r="B198" s="2" t="s">
         <v>34</v>
@@ -10446,7 +10446,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
         <v>35</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>44</v>
       </c>
@@ -10514,7 +10514,7 @@
       <c r="O200" s="9"/>
       <c r="P200" s="9"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>1</v>
       </c>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="P201" s="7"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="1" t="s">
@@ -10596,7 +10596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>13</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
       <c r="B204" s="2" t="s">
         <v>15</v>
@@ -10694,7 +10694,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
       <c r="B205" s="2" t="s">
         <v>16</v>
@@ -10742,7 +10742,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
       <c r="B206" s="2" t="s">
         <v>17</v>
@@ -10790,7 +10790,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
       <c r="B207" s="2" t="s">
         <v>18</v>
@@ -10838,7 +10838,7 @@
         <v>95.98</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
       <c r="B208" s="2" t="s">
         <v>19</v>
@@ -10886,7 +10886,7 @@
         <v>14.44</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>20</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
       <c r="B210" s="2" t="s">
         <v>22</v>
@@ -10984,7 +10984,7 @@
         <v>149.91</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
       <c r="B211" s="2" t="s">
         <v>23</v>
@@ -11032,7 +11032,7 @@
         <v>580.41999999999996</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
       <c r="B212" s="2" t="s">
         <v>24</v>
@@ -11080,7 +11080,7 @@
         <v>703.34</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
       <c r="B213" s="2" t="s">
         <v>25</v>
@@ -11128,7 +11128,7 @@
         <v>54.95</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>26</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
       <c r="B215" s="2" t="s">
         <v>28</v>
@@ -11226,7 +11226,7 @@
         <v>140.27000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
       <c r="B216" s="2" t="s">
         <v>29</v>
@@ -11274,7 +11274,7 @@
         <v>1899.95</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
       <c r="B217" s="2" t="s">
         <v>30</v>
@@ -11322,7 +11322,7 @@
         <v>207.6</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
       <c r="B218" s="2" t="s">
         <v>31</v>
@@ -11370,7 +11370,7 @@
         <v>547.74</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>32</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
       <c r="B220" s="2" t="s">
         <v>34</v>
@@ -11468,7 +11468,7 @@
         <v>169.62</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
         <v>35</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>4588.6000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>45</v>
       </c>
@@ -11536,7 +11536,7 @@
       <c r="O222" s="9"/>
       <c r="P222" s="9"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>1</v>
       </c>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="P223" s="7"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="1" t="s">
@@ -11618,7 +11618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>13</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
       <c r="B226" s="2" t="s">
         <v>15</v>
@@ -11716,7 +11716,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
       <c r="B227" s="2" t="s">
         <v>16</v>
@@ -11764,7 +11764,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
       <c r="B228" s="2" t="s">
         <v>17</v>
@@ -11812,7 +11812,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
       <c r="B229" s="2" t="s">
         <v>18</v>
@@ -11860,7 +11860,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
       <c r="B230" s="2" t="s">
         <v>19</v>
@@ -11908,7 +11908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>20</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
       <c r="B232" s="2" t="s">
         <v>22</v>
@@ -12006,7 +12006,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
       <c r="B233" s="2" t="s">
         <v>23</v>
@@ -12054,7 +12054,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
       <c r="B234" s="2" t="s">
         <v>24</v>
@@ -12102,7 +12102,7 @@
         <v>772.5</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
       <c r="B235" s="2" t="s">
         <v>25</v>
@@ -12150,7 +12150,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>26</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
       <c r="B237" s="2" t="s">
         <v>28</v>
@@ -12248,7 +12248,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
       <c r="B238" s="2" t="s">
         <v>29</v>
@@ -12296,7 +12296,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
       <c r="B239" s="2" t="s">
         <v>30</v>
@@ -12344,7 +12344,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
       <c r="B240" s="2" t="s">
         <v>31</v>
@@ -12392,7 +12392,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>32</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
       <c r="B242" s="2" t="s">
         <v>34</v>
@@ -12490,7 +12490,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
         <v>35</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>5500.5</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
         <v>46</v>
       </c>
@@ -12558,7 +12558,7 @@
       <c r="O244" s="9"/>
       <c r="P244" s="9"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
         <v>1</v>
       </c>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="P245" s="7"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="1" t="s">
@@ -12640,7 +12640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
         <v>13</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
       <c r="B248" s="2" t="s">
         <v>15</v>
@@ -12738,7 +12738,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
       <c r="B249" s="2" t="s">
         <v>16</v>
@@ -12786,7 +12786,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
       <c r="B250" s="2" t="s">
         <v>17</v>
@@ -12834,7 +12834,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
       <c r="B251" s="2" t="s">
         <v>18</v>
@@ -12882,7 +12882,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
       <c r="B252" s="2" t="s">
         <v>19</v>
@@ -12930,7 +12930,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
         <v>20</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
       <c r="B254" s="2" t="s">
         <v>22</v>
@@ -13028,7 +13028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
       <c r="B255" s="2" t="s">
         <v>23</v>
@@ -13076,7 +13076,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
       <c r="B256" s="2" t="s">
         <v>24</v>
@@ -13124,7 +13124,7 @@
         <v>813.5</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
       <c r="B257" s="2" t="s">
         <v>25</v>
@@ -13172,7 +13172,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
         <v>26</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
       <c r="B259" s="2" t="s">
         <v>28</v>
@@ -13270,7 +13270,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
       <c r="B260" s="2" t="s">
         <v>29</v>
@@ -13318,7 +13318,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
       <c r="B261" s="2" t="s">
         <v>30</v>
@@ -13366,7 +13366,7 @@
         <v>244.5</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
       <c r="B262" s="2" t="s">
         <v>31</v>
@@ -13414,7 +13414,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
         <v>32</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
       <c r="B264" s="2" t="s">
         <v>34</v>
@@ -13512,7 +13512,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
         <v>35</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>5956.5</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
         <v>47</v>
       </c>
@@ -13580,7 +13580,7 @@
       <c r="O266" s="9"/>
       <c r="P266" s="9"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
         <v>1</v>
       </c>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="P267" s="7"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="1" t="s">
@@ -13662,7 +13662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
         <v>13</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
       <c r="B270" s="2" t="s">
         <v>15</v>
@@ -13760,7 +13760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
       <c r="B271" s="2" t="s">
         <v>16</v>
@@ -13808,7 +13808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
       <c r="B272" s="2" t="s">
         <v>17</v>
@@ -13856,7 +13856,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
       <c r="B273" s="2" t="s">
         <v>18</v>
@@ -13904,7 +13904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
       <c r="B274" s="2" t="s">
         <v>19</v>
@@ -13952,7 +13952,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
         <v>20</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
       <c r="B276" s="2" t="s">
         <v>22</v>
@@ -14050,7 +14050,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
       <c r="B277" s="2" t="s">
         <v>23</v>
@@ -14098,7 +14098,7 @@
         <v>625.5</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
       <c r="B278" s="2" t="s">
         <v>24</v>
@@ -14146,7 +14146,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
       <c r="B279" s="2" t="s">
         <v>25</v>
@@ -14194,7 +14194,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
         <v>26</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" s="7"/>
       <c r="B281" s="2" t="s">
         <v>28</v>
@@ -14292,7 +14292,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" s="7"/>
       <c r="B282" s="2" t="s">
         <v>29</v>
@@ -14340,7 +14340,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="7"/>
       <c r="B283" s="2" t="s">
         <v>30</v>
@@ -14388,7 +14388,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
       <c r="B284" s="2" t="s">
         <v>31</v>
@@ -14436,7 +14436,7 @@
         <v>751.5</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
         <v>32</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" s="7"/>
       <c r="B286" s="2" t="s">
         <v>34</v>
@@ -14534,7 +14534,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
         <v>35</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>5884.5</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
         <v>48</v>
       </c>
@@ -14602,7 +14602,7 @@
       <c r="O288" s="9"/>
       <c r="P288" s="9"/>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
         <v>1</v>
       </c>
@@ -14638,7 +14638,7 @@
       </c>
       <c r="P289" s="7"/>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="1" t="s">
@@ -14684,7 +14684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
         <v>13</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" s="7"/>
       <c r="B292" s="2" t="s">
         <v>15</v>
@@ -14782,7 +14782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" s="7"/>
       <c r="B293" s="2" t="s">
         <v>16</v>
@@ -14830,7 +14830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" s="7"/>
       <c r="B294" s="2" t="s">
         <v>17</v>
@@ -14878,7 +14878,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" s="7"/>
       <c r="B295" s="2" t="s">
         <v>18</v>
@@ -14926,7 +14926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
       <c r="B296" s="2" t="s">
         <v>19</v>
@@ -14974,7 +14974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" s="7" t="s">
         <v>20</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" s="7"/>
       <c r="B298" s="2" t="s">
         <v>22</v>
@@ -15072,7 +15072,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" s="7"/>
       <c r="B299" s="2" t="s">
         <v>23</v>
@@ -15120,7 +15120,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="7"/>
       <c r="B300" s="2" t="s">
         <v>24</v>
@@ -15168,7 +15168,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" s="7"/>
       <c r="B301" s="2" t="s">
         <v>25</v>
@@ -15216,7 +15216,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
         <v>26</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" s="7"/>
       <c r="B303" s="2" t="s">
         <v>28</v>
@@ -15314,7 +15314,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" s="7"/>
       <c r="B304" s="2" t="s">
         <v>29</v>
@@ -15362,7 +15362,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" s="7"/>
       <c r="B305" s="2" t="s">
         <v>30</v>
@@ -15410,7 +15410,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
       <c r="B306" s="2" t="s">
         <v>31</v>
@@ -15458,7 +15458,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
         <v>32</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
       <c r="B308" s="2" t="s">
         <v>34</v>
@@ -15556,7 +15556,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" s="8" t="s">
         <v>35</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>4882</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" s="9" t="s">
         <v>49</v>
       </c>
@@ -15624,7 +15624,7 @@
       <c r="O310" s="9"/>
       <c r="P310" s="9"/>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
         <v>1</v>
       </c>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="P311" s="7"/>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="1" t="s">
@@ -15706,7 +15706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
         <v>13</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314" s="7"/>
       <c r="B314" s="2" t="s">
         <v>15</v>
@@ -15804,7 +15804,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315" s="7"/>
       <c r="B315" s="2" t="s">
         <v>16</v>
@@ -15852,7 +15852,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" s="7"/>
       <c r="B316" s="2" t="s">
         <v>17</v>
@@ -15900,7 +15900,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317" s="7"/>
       <c r="B317" s="2" t="s">
         <v>18</v>
@@ -15948,7 +15948,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" s="7"/>
       <c r="B318" s="2" t="s">
         <v>19</v>
@@ -15996,7 +15996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
         <v>20</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" s="7"/>
       <c r="B320" s="2" t="s">
         <v>22</v>
@@ -16094,7 +16094,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" s="7"/>
       <c r="B321" s="2" t="s">
         <v>23</v>
@@ -16142,7 +16142,7 @@
         <v>569.5</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" s="7"/>
       <c r="B322" s="2" t="s">
         <v>24</v>
@@ -16190,7 +16190,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" s="7"/>
       <c r="B323" s="2" t="s">
         <v>25</v>
@@ -16238,7 +16238,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" s="7" t="s">
         <v>26</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" s="7"/>
       <c r="B325" s="2" t="s">
         <v>28</v>
@@ -16336,7 +16336,7 @@
         <v>186.5</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" s="7"/>
       <c r="B326" s="2" t="s">
         <v>29</v>
@@ -16384,7 +16384,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" s="7"/>
       <c r="B327" s="2" t="s">
         <v>30</v>
@@ -16432,7 +16432,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328" s="7"/>
       <c r="B328" s="2" t="s">
         <v>31</v>
@@ -16480,7 +16480,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329" s="7" t="s">
         <v>32</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330" s="7"/>
       <c r="B330" s="2" t="s">
         <v>34</v>
@@ -16578,7 +16578,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331" s="8" t="s">
         <v>35</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332" s="9" t="s">
         <v>50</v>
       </c>
@@ -16646,7 +16646,7 @@
       <c r="O332" s="9"/>
       <c r="P332" s="9"/>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333" s="7" t="s">
         <v>1</v>
       </c>
@@ -16682,7 +16682,7 @@
       </c>
       <c r="P333" s="7"/>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="1" t="s">
@@ -16728,7 +16728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
         <v>13</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" s="7"/>
       <c r="B336" s="2" t="s">
         <v>15</v>
@@ -16826,7 +16826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337" s="7"/>
       <c r="B337" s="2" t="s">
         <v>16</v>
@@ -16874,7 +16874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338" s="7"/>
       <c r="B338" s="2" t="s">
         <v>17</v>
@@ -16922,7 +16922,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339" s="7"/>
       <c r="B339" s="2" t="s">
         <v>18</v>
@@ -16970,7 +16970,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340" s="7"/>
       <c r="B340" s="2" t="s">
         <v>19</v>
@@ -17018,7 +17018,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
         <v>20</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="7"/>
       <c r="B342" s="2" t="s">
         <v>22</v>
@@ -17116,7 +17116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="7"/>
       <c r="B343" s="2" t="s">
         <v>23</v>
@@ -17164,7 +17164,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344" s="7"/>
       <c r="B344" s="2" t="s">
         <v>24</v>
@@ -17212,7 +17212,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" s="7"/>
       <c r="B345" s="2" t="s">
         <v>25</v>
@@ -17260,7 +17260,7 @@
         <v>140.5</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
         <v>26</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" s="7"/>
       <c r="B347" s="2" t="s">
         <v>28</v>
@@ -17358,7 +17358,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348" s="7"/>
       <c r="B348" s="2" t="s">
         <v>29</v>
@@ -17406,7 +17406,7 @@
         <v>1704.5</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349" s="7"/>
       <c r="B349" s="2" t="s">
         <v>30</v>
@@ -17454,7 +17454,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350" s="7"/>
       <c r="B350" s="2" t="s">
         <v>31</v>
@@ -17502,7 +17502,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
         <v>32</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" s="7"/>
       <c r="B352" s="2" t="s">
         <v>34</v>
@@ -17600,7 +17600,7 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
         <v>35</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>5061.5</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354" s="9" t="s">
         <v>51</v>
       </c>
@@ -17668,7 +17668,7 @@
       <c r="O354" s="9"/>
       <c r="P354" s="9"/>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
         <v>1</v>
       </c>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="P355" s="7"/>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="1" t="s">
@@ -17750,7 +17750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
         <v>13</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358" s="7"/>
       <c r="B358" s="2" t="s">
         <v>15</v>
@@ -17848,7 +17848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359" s="7"/>
       <c r="B359" s="2" t="s">
         <v>16</v>
@@ -17896,7 +17896,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360" s="7"/>
       <c r="B360" s="2" t="s">
         <v>17</v>
@@ -17944,7 +17944,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361" s="7"/>
       <c r="B361" s="2" t="s">
         <v>18</v>
@@ -17992,7 +17992,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362" s="7"/>
       <c r="B362" s="2" t="s">
         <v>19</v>
@@ -18040,7 +18040,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
         <v>20</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364" s="7"/>
       <c r="B364" s="2" t="s">
         <v>22</v>
@@ -18138,7 +18138,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365" s="7"/>
       <c r="B365" s="2" t="s">
         <v>23</v>
@@ -18186,7 +18186,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366" s="7"/>
       <c r="B366" s="2" t="s">
         <v>24</v>
@@ -18234,7 +18234,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367" s="7"/>
       <c r="B367" s="2" t="s">
         <v>25</v>
@@ -18282,7 +18282,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368" s="7" t="s">
         <v>26</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369" s="7"/>
       <c r="B369" s="2" t="s">
         <v>28</v>
@@ -18380,7 +18380,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370" s="7"/>
       <c r="B370" s="2" t="s">
         <v>29</v>
@@ -18428,7 +18428,7 @@
         <v>1696.5</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371" s="7"/>
       <c r="B371" s="2" t="s">
         <v>30</v>
@@ -18476,7 +18476,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372" s="7"/>
       <c r="B372" s="2" t="s">
         <v>31</v>
@@ -18524,7 +18524,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373" s="7" t="s">
         <v>32</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374" s="7"/>
       <c r="B374" s="2" t="s">
         <v>34</v>
@@ -18622,7 +18622,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375" s="8" t="s">
         <v>35</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>5052.5</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
         <v>52</v>
       </c>
@@ -18690,7 +18690,7 @@
       <c r="O376" s="9"/>
       <c r="P376" s="9"/>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377" s="7" t="s">
         <v>1</v>
       </c>
@@ -18726,7 +18726,7 @@
       </c>
       <c r="P377" s="7"/>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="1" t="s">
@@ -18772,7 +18772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379" s="7" t="s">
         <v>13</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380" s="7"/>
       <c r="B380" s="2" t="s">
         <v>15</v>
@@ -18870,7 +18870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381" s="7"/>
       <c r="B381" s="2" t="s">
         <v>16</v>
@@ -18918,7 +18918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382" s="7"/>
       <c r="B382" s="2" t="s">
         <v>17</v>
@@ -18966,7 +18966,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383" s="7"/>
       <c r="B383" s="2" t="s">
         <v>18</v>
@@ -19014,7 +19014,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384" s="7"/>
       <c r="B384" s="2" t="s">
         <v>19</v>
@@ -19062,7 +19062,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
         <v>20</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386" s="7"/>
       <c r="B386" s="2" t="s">
         <v>22</v>
@@ -19160,7 +19160,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387" s="7"/>
       <c r="B387" s="2" t="s">
         <v>23</v>
@@ -19208,7 +19208,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A388" s="7"/>
       <c r="B388" s="2" t="s">
         <v>24</v>
@@ -19256,7 +19256,7 @@
         <v>658.5</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389" s="7"/>
       <c r="B389" s="2" t="s">
         <v>25</v>
@@ -19304,7 +19304,7 @@
         <v>193.5</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
         <v>26</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391" s="7"/>
       <c r="B391" s="2" t="s">
         <v>28</v>
@@ -19402,7 +19402,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A392" s="7"/>
       <c r="B392" s="2" t="s">
         <v>29</v>
@@ -19450,7 +19450,7 @@
         <v>1663.5</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A393" s="7"/>
       <c r="B393" s="2" t="s">
         <v>30</v>
@@ -19498,7 +19498,7 @@
         <v>284.5</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A394" s="7"/>
       <c r="B394" s="2" t="s">
         <v>31</v>
@@ -19546,7 +19546,7 @@
         <v>759.5</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
         <v>32</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A396" s="7"/>
       <c r="B396" s="2" t="s">
         <v>34</v>
@@ -19644,7 +19644,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
         <v>35</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398" s="9" t="s">
         <v>53</v>
       </c>
@@ -19712,7 +19712,7 @@
       <c r="O398" s="9"/>
       <c r="P398" s="9"/>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A399" s="7" t="s">
         <v>1</v>
       </c>
@@ -19748,7 +19748,7 @@
       </c>
       <c r="P399" s="7"/>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="1" t="s">
@@ -19794,7 +19794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A401" s="7" t="s">
         <v>13</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A402" s="7"/>
       <c r="B402" s="2" t="s">
         <v>15</v>
@@ -19892,7 +19892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403" s="7"/>
       <c r="B403" s="2" t="s">
         <v>16</v>
@@ -19940,7 +19940,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404" s="7"/>
       <c r="B404" s="2" t="s">
         <v>17</v>
@@ -19988,7 +19988,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A405" s="7"/>
       <c r="B405" s="2" t="s">
         <v>18</v>
@@ -20036,7 +20036,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A406" s="7"/>
       <c r="B406" s="2" t="s">
         <v>19</v>
@@ -20084,7 +20084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407" s="7" t="s">
         <v>20</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408" s="7"/>
       <c r="B408" s="2" t="s">
         <v>22</v>
@@ -20182,7 +20182,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A409" s="7"/>
       <c r="B409" s="2" t="s">
         <v>23</v>
@@ -20230,7 +20230,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A410" s="7"/>
       <c r="B410" s="2" t="s">
         <v>24</v>
@@ -20278,7 +20278,7 @@
         <v>935.5</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A411" s="7"/>
       <c r="B411" s="2" t="s">
         <v>25</v>
@@ -20326,7 +20326,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412" s="7" t="s">
         <v>26</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A413" s="7"/>
       <c r="B413" s="2" t="s">
         <v>28</v>
@@ -20424,7 +20424,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A414" s="7"/>
       <c r="B414" s="2" t="s">
         <v>29</v>
@@ -20472,7 +20472,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A415" s="7"/>
       <c r="B415" s="2" t="s">
         <v>30</v>
@@ -20520,7 +20520,7 @@
         <v>346.5</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A416" s="7"/>
       <c r="B416" s="2" t="s">
         <v>31</v>
@@ -20568,7 +20568,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
         <v>32</v>
       </c>
@@ -20618,7 +20618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A418" s="7"/>
       <c r="B418" s="2" t="s">
         <v>34</v>
@@ -20666,7 +20666,7 @@
         <v>133.5</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A419" s="8" t="s">
         <v>35</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>5825</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A420" s="9" t="s">
         <v>54</v>
       </c>
@@ -20734,7 +20734,7 @@
       <c r="O420" s="9"/>
       <c r="P420" s="9"/>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A421" s="7" t="s">
         <v>1</v>
       </c>
@@ -20770,7 +20770,7 @@
       </c>
       <c r="P421" s="7"/>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="1" t="s">
@@ -20816,7 +20816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A423" s="7" t="s">
         <v>13</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A424" s="7"/>
       <c r="B424" s="2" t="s">
         <v>15</v>
@@ -20914,7 +20914,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A425" s="7"/>
       <c r="B425" s="2" t="s">
         <v>16</v>
@@ -20962,7 +20962,7 @@
         <v>36.880000000000003</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A426" s="7"/>
       <c r="B426" s="2" t="s">
         <v>17</v>
@@ -21010,7 +21010,7 @@
         <v>167.41</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A427" s="7"/>
       <c r="B427" s="2" t="s">
         <v>18</v>
@@ -21058,7 +21058,7 @@
         <v>219.33</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A428" s="7"/>
       <c r="B428" s="2" t="s">
         <v>19</v>
@@ -21106,7 +21106,7 @@
         <v>123.74</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A429" s="7" t="s">
         <v>20</v>
       </c>
@@ -21156,7 +21156,7 @@
         <v>73.27</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A430" s="7"/>
       <c r="B430" s="2" t="s">
         <v>22</v>
@@ -21204,7 +21204,7 @@
         <v>115.97</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A431" s="7"/>
       <c r="B431" s="2" t="s">
         <v>23</v>
@@ -21252,7 +21252,7 @@
         <v>753.59</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A432" s="7"/>
       <c r="B432" s="2" t="s">
         <v>24</v>
@@ -21300,7 +21300,7 @@
         <v>808.91</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A433" s="7"/>
       <c r="B433" s="2" t="s">
         <v>25</v>
@@ -21348,7 +21348,7 @@
         <v>255.73</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A434" s="7" t="s">
         <v>26</v>
       </c>
@@ -21398,7 +21398,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A435" s="7"/>
       <c r="B435" s="2" t="s">
         <v>28</v>
@@ -21446,7 +21446,7 @@
         <v>494.47</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A436" s="7"/>
       <c r="B436" s="2" t="s">
         <v>29</v>
@@ -21494,7 +21494,7 @@
         <v>1414.98</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A437" s="7"/>
       <c r="B437" s="2" t="s">
         <v>30</v>
@@ -21542,7 +21542,7 @@
         <v>378.98</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A438" s="7"/>
       <c r="B438" s="2" t="s">
         <v>31</v>
@@ -21590,7 +21590,7 @@
         <v>766.69</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A439" s="7" t="s">
         <v>32</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>31.06</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A440" s="7"/>
       <c r="B440" s="2" t="s">
         <v>34</v>
@@ -21688,7 +21688,7 @@
         <v>73.27</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A441" s="8" t="s">
         <v>35</v>
       </c>
@@ -21738,6 +21738,290 @@
     </row>
   </sheetData>
   <mergeCells count="300">
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:P112"/>
+    <mergeCell ref="A90:P90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:P134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="O157:P157"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:P156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="A181:A186"/>
+    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="A192:A196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:P200"/>
+    <mergeCell ref="A178:P178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="O201:P201"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="I201:J201"/>
+    <mergeCell ref="M223:N223"/>
+    <mergeCell ref="O223:P223"/>
+    <mergeCell ref="A225:A230"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:P222"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="I223:J223"/>
+    <mergeCell ref="K223:L223"/>
+    <mergeCell ref="O245:P245"/>
+    <mergeCell ref="A247:A252"/>
+    <mergeCell ref="A253:A257"/>
+    <mergeCell ref="A258:A262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A244:P244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="G245:H245"/>
+    <mergeCell ref="I245:J245"/>
+    <mergeCell ref="K245:L245"/>
+    <mergeCell ref="M245:N245"/>
+    <mergeCell ref="A269:A274"/>
+    <mergeCell ref="A275:A279"/>
+    <mergeCell ref="A280:A284"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A288:P288"/>
+    <mergeCell ref="A266:P266"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B267:B268"/>
+    <mergeCell ref="C267:D267"/>
+    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="G267:H267"/>
+    <mergeCell ref="I267:J267"/>
+    <mergeCell ref="K267:L267"/>
+    <mergeCell ref="M267:N267"/>
+    <mergeCell ref="O267:P267"/>
+    <mergeCell ref="K289:L289"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="O289:P289"/>
+    <mergeCell ref="A291:A296"/>
+    <mergeCell ref="A297:A301"/>
+    <mergeCell ref="A302:A306"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:D289"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="G289:H289"/>
+    <mergeCell ref="I289:J289"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="O311:P311"/>
+    <mergeCell ref="A313:A318"/>
+    <mergeCell ref="A319:A323"/>
+    <mergeCell ref="A324:A328"/>
+    <mergeCell ref="A329:A330"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A310:P310"/>
+    <mergeCell ref="A311:A312"/>
+    <mergeCell ref="B311:B312"/>
+    <mergeCell ref="C311:D311"/>
+    <mergeCell ref="E311:F311"/>
+    <mergeCell ref="G311:H311"/>
+    <mergeCell ref="I311:J311"/>
+    <mergeCell ref="K311:L311"/>
+    <mergeCell ref="O333:P333"/>
+    <mergeCell ref="A335:A340"/>
+    <mergeCell ref="A341:A345"/>
+    <mergeCell ref="A346:A350"/>
+    <mergeCell ref="A351:A352"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A332:P332"/>
+    <mergeCell ref="A333:A334"/>
+    <mergeCell ref="B333:B334"/>
+    <mergeCell ref="C333:D333"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="G333:H333"/>
+    <mergeCell ref="I333:J333"/>
+    <mergeCell ref="K333:L333"/>
+    <mergeCell ref="M333:N333"/>
+    <mergeCell ref="A357:A362"/>
+    <mergeCell ref="A363:A367"/>
+    <mergeCell ref="A368:A372"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="A375:B375"/>
+    <mergeCell ref="A376:P376"/>
+    <mergeCell ref="A354:P354"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="C355:D355"/>
+    <mergeCell ref="E355:F355"/>
+    <mergeCell ref="G355:H355"/>
+    <mergeCell ref="I355:J355"/>
+    <mergeCell ref="K355:L355"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="O355:P355"/>
+    <mergeCell ref="K377:L377"/>
+    <mergeCell ref="M377:N377"/>
+    <mergeCell ref="O377:P377"/>
+    <mergeCell ref="A379:A384"/>
+    <mergeCell ref="A385:A389"/>
+    <mergeCell ref="A390:A394"/>
+    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:F377"/>
+    <mergeCell ref="G377:H377"/>
+    <mergeCell ref="I377:J377"/>
+    <mergeCell ref="M399:N399"/>
+    <mergeCell ref="O399:P399"/>
+    <mergeCell ref="A401:A406"/>
+    <mergeCell ref="A407:A411"/>
+    <mergeCell ref="A412:A416"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="A397:B397"/>
+    <mergeCell ref="A398:P398"/>
+    <mergeCell ref="A399:A400"/>
+    <mergeCell ref="B399:B400"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="E399:F399"/>
+    <mergeCell ref="G399:H399"/>
+    <mergeCell ref="I399:J399"/>
+    <mergeCell ref="K399:L399"/>
     <mergeCell ref="O421:P421"/>
     <mergeCell ref="A423:A428"/>
     <mergeCell ref="A429:A433"/>
@@ -21754,290 +22038,6 @@
     <mergeCell ref="I421:J421"/>
     <mergeCell ref="K421:L421"/>
     <mergeCell ref="M421:N421"/>
-    <mergeCell ref="M399:N399"/>
-    <mergeCell ref="O399:P399"/>
-    <mergeCell ref="A401:A406"/>
-    <mergeCell ref="A407:A411"/>
-    <mergeCell ref="A412:A416"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="A395:A396"/>
-    <mergeCell ref="A397:B397"/>
-    <mergeCell ref="A398:P398"/>
-    <mergeCell ref="A399:A400"/>
-    <mergeCell ref="B399:B400"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="E399:F399"/>
-    <mergeCell ref="G399:H399"/>
-    <mergeCell ref="I399:J399"/>
-    <mergeCell ref="K399:L399"/>
-    <mergeCell ref="K377:L377"/>
-    <mergeCell ref="M377:N377"/>
-    <mergeCell ref="O377:P377"/>
-    <mergeCell ref="A379:A384"/>
-    <mergeCell ref="A385:A389"/>
-    <mergeCell ref="A390:A394"/>
-    <mergeCell ref="A377:A378"/>
-    <mergeCell ref="B377:B378"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:F377"/>
-    <mergeCell ref="G377:H377"/>
-    <mergeCell ref="I377:J377"/>
-    <mergeCell ref="A357:A362"/>
-    <mergeCell ref="A363:A367"/>
-    <mergeCell ref="A368:A372"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="A375:B375"/>
-    <mergeCell ref="A376:P376"/>
-    <mergeCell ref="A354:P354"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="C355:D355"/>
-    <mergeCell ref="E355:F355"/>
-    <mergeCell ref="G355:H355"/>
-    <mergeCell ref="I355:J355"/>
-    <mergeCell ref="K355:L355"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="O355:P355"/>
-    <mergeCell ref="O333:P333"/>
-    <mergeCell ref="A335:A340"/>
-    <mergeCell ref="A341:A345"/>
-    <mergeCell ref="A346:A350"/>
-    <mergeCell ref="A351:A352"/>
-    <mergeCell ref="A353:B353"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A332:P332"/>
-    <mergeCell ref="A333:A334"/>
-    <mergeCell ref="B333:B334"/>
-    <mergeCell ref="C333:D333"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="G333:H333"/>
-    <mergeCell ref="I333:J333"/>
-    <mergeCell ref="K333:L333"/>
-    <mergeCell ref="M333:N333"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="O311:P311"/>
-    <mergeCell ref="A313:A318"/>
-    <mergeCell ref="A319:A323"/>
-    <mergeCell ref="A324:A328"/>
-    <mergeCell ref="A329:A330"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A310:P310"/>
-    <mergeCell ref="A311:A312"/>
-    <mergeCell ref="B311:B312"/>
-    <mergeCell ref="C311:D311"/>
-    <mergeCell ref="E311:F311"/>
-    <mergeCell ref="G311:H311"/>
-    <mergeCell ref="I311:J311"/>
-    <mergeCell ref="K311:L311"/>
-    <mergeCell ref="K289:L289"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="O289:P289"/>
-    <mergeCell ref="A291:A296"/>
-    <mergeCell ref="A297:A301"/>
-    <mergeCell ref="A302:A306"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="C289:D289"/>
-    <mergeCell ref="E289:F289"/>
-    <mergeCell ref="G289:H289"/>
-    <mergeCell ref="I289:J289"/>
-    <mergeCell ref="A269:A274"/>
-    <mergeCell ref="A275:A279"/>
-    <mergeCell ref="A280:A284"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A288:P288"/>
-    <mergeCell ref="A266:P266"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="C267:D267"/>
-    <mergeCell ref="E267:F267"/>
-    <mergeCell ref="G267:H267"/>
-    <mergeCell ref="I267:J267"/>
-    <mergeCell ref="K267:L267"/>
-    <mergeCell ref="M267:N267"/>
-    <mergeCell ref="O267:P267"/>
-    <mergeCell ref="O245:P245"/>
-    <mergeCell ref="A247:A252"/>
-    <mergeCell ref="A253:A257"/>
-    <mergeCell ref="A258:A262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A244:P244"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="E245:F245"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="I245:J245"/>
-    <mergeCell ref="K245:L245"/>
-    <mergeCell ref="M245:N245"/>
-    <mergeCell ref="M223:N223"/>
-    <mergeCell ref="O223:P223"/>
-    <mergeCell ref="A225:A230"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:P222"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="I223:J223"/>
-    <mergeCell ref="K223:L223"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="O201:P201"/>
-    <mergeCell ref="A203:A208"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="I201:J201"/>
-    <mergeCell ref="A181:A186"/>
-    <mergeCell ref="A187:A191"/>
-    <mergeCell ref="A192:A196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:P200"/>
-    <mergeCell ref="A178:P178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="O157:P157"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:P156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="O135:P135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:P134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="O113:P113"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:P112"/>
-    <mergeCell ref="A90:P90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22047,7 +22047,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="2049" r:id="rId3" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId4">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -22057,9 +22057,9 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:colOff>586740</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -22081,9 +22081,9 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>9253</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -22287,7 +22287,7 @@
         <v>67.55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>123431</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>10663.4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>5349754</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -22559,7 +22559,7 @@
         <v>54567.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -22627,7 +22627,7 @@
         <v>89384</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -22763,7 +22763,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -22831,7 +22831,7 @@
         <v>359.04</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>94221</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>7908</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -23103,46 +23103,46 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
     </row>
   </sheetData>
@@ -23157,12 +23157,12 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -23230,7 +23230,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>9253</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>67.55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>123431</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -23502,7 +23502,7 @@
         <v>10663.4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>5349754</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -23638,7 +23638,7 @@
         <v>54567.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>89384</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -23910,7 +23910,7 @@
         <v>359.04</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -23978,7 +23978,7 @@
         <v>94221</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -24046,7 +24046,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -24114,7 +24114,7 @@
         <v>7908</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -24182,7 +24182,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -24253,8 +24253,24 @@
         <f t="shared" si="0"/>
         <v>6166025</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="5">
+        <f t="shared" ref="S16:V16" si="1">SUM(S2,S4,S6,S8,S10,S12,S14)</f>
+        <v>5846146</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="1"/>
+        <v>5794772</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="1"/>
+        <v>5736248</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="1"/>
+        <v>5718833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -24266,64 +24282,80 @@
         <v>109156.56000000001</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" ref="D17:R17" si="1">SUM(D3,D5,D7,D9,D11,D13,D15)</f>
+        <f t="shared" ref="D17:R17" si="2">SUM(D3,D5,D7,D9,D11,D13,D15)</f>
         <v>116708.91</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117918.97</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113782.58</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110128.06</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108726.32999999999</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107782.72</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111147.09</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111091.82</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104825.92</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101163.37999999999</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73370.610000000015</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73818.53</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74987.290000000008</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72479.999999999985</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80767.150000000009</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" ref="S17:V17" si="3">SUM(S3,S5,S7,S9,S11,S13,S15)</f>
+        <v>66788.12000000001</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="3"/>
+        <v>66557.66</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="3"/>
+        <v>65773.330000000016</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="3"/>
+        <v>65742.859999999986</v>
       </c>
     </row>
   </sheetData>

--- a/chart15/data/細分畜牧.xlsx
+++ b/chart15/data/細分畜牧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="12156" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="12150" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="YourExcelFileName (8)" sheetId="2" r:id="rId1"/>
@@ -954,9 +954,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>586740</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1281,22 +1281,22 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
@@ -1398,7 +1398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -1592,7 +1592,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -1640,7 +1640,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -1786,7 +1786,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -1834,7 +1834,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1882,7 +1882,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -2076,7 +2076,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>30</v>
@@ -2124,7 +2124,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>34</v>
@@ -2270,7 +2270,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>36</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1</v>
       </c>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
@@ -2420,7 +2420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
         <v>15</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>17</v>
@@ -2614,7 +2614,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
         <v>18</v>
@@ -2662,7 +2662,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
         <v>19</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>20</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
         <v>22</v>
@@ -2808,7 +2808,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -2856,7 +2856,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="2" t="s">
         <v>24</v>
@@ -2904,7 +2904,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="2" t="s">
         <v>25</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
         <v>28</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="2" t="s">
         <v>29</v>
@@ -3098,7 +3098,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="2" t="s">
         <v>30</v>
@@ -3146,7 +3146,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="2" t="s">
         <v>31</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>32</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="2" t="s">
         <v>34</v>
@@ -3292,7 +3292,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>35</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>37</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>1</v>
       </c>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="P47" s="7"/>
     </row>
-    <row r="48" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1" t="s">
@@ -3442,7 +3442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>13</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="2" t="s">
         <v>15</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
         <v>16</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="2" t="s">
         <v>17</v>
@@ -3636,7 +3636,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="2" t="s">
         <v>18</v>
@@ -3684,7 +3684,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>20</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="2" t="s">
         <v>22</v>
@@ -3830,7 +3830,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="2" t="s">
         <v>23</v>
@@ -3878,7 +3878,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="2" t="s">
         <v>24</v>
@@ -3926,7 +3926,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="2" t="s">
         <v>25</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="2" t="s">
         <v>28</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="2" t="s">
         <v>29</v>
@@ -4120,7 +4120,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="2" t="s">
         <v>30</v>
@@ -4168,7 +4168,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="2" t="s">
         <v>31</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="2" t="s">
         <v>34</v>
@@ -4314,7 +4314,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>35</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>38</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>1</v>
       </c>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
@@ -4464,7 +4464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>13</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="2" t="s">
         <v>15</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="2" t="s">
         <v>16</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="2" t="s">
         <v>17</v>
@@ -4658,7 +4658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="2" t="s">
         <v>18</v>
@@ -4706,7 +4706,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="2" t="s">
         <v>19</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>20</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="2" t="s">
         <v>22</v>
@@ -4852,7 +4852,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="2" t="s">
         <v>23</v>
@@ -4900,7 +4900,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="2" t="s">
         <v>24</v>
@@ -4948,7 +4948,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="2" t="s">
         <v>25</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>26</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="2" t="s">
         <v>28</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="2" t="s">
         <v>29</v>
@@ -5142,7 +5142,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="2" t="s">
         <v>30</v>
@@ -5190,7 +5190,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="2" t="s">
         <v>31</v>
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>32</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="2" t="s">
         <v>34</v>
@@ -5336,7 +5336,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>35</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>39</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>1</v>
       </c>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="P91" s="7"/>
     </row>
-    <row r="92" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="1" t="s">
@@ -5486,7 +5486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>13</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="2" t="s">
         <v>15</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="2" t="s">
         <v>16</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="2" t="s">
         <v>17</v>
@@ -5680,7 +5680,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="2" t="s">
         <v>18</v>
@@ -5728,7 +5728,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="2" t="s">
         <v>19</v>
@@ -5776,7 +5776,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>20</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="2" t="s">
         <v>22</v>
@@ -5874,7 +5874,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="2" t="s">
         <v>23</v>
@@ -5922,7 +5922,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="2" t="s">
         <v>24</v>
@@ -5970,7 +5970,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="2" t="s">
         <v>25</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>26</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="2" t="s">
         <v>28</v>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="2" t="s">
         <v>29</v>
@@ -6164,7 +6164,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="2" t="s">
         <v>30</v>
@@ -6212,7 +6212,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="2" t="s">
         <v>31</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>32</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="2" t="s">
         <v>34</v>
@@ -6358,7 +6358,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>35</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>40</v>
       </c>
@@ -6426,7 +6426,7 @@
       <c r="O112" s="9"/>
       <c r="P112" s="9"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>1</v>
       </c>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="P113" s="7"/>
     </row>
-    <row r="114" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="1" t="s">
@@ -6508,7 +6508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>13</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="2" t="s">
         <v>15</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="2" t="s">
         <v>16</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="2" t="s">
         <v>17</v>
@@ -6702,7 +6702,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="2" t="s">
         <v>18</v>
@@ -6750,7 +6750,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="2" t="s">
         <v>19</v>
@@ -6798,7 +6798,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>20</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="2" t="s">
         <v>22</v>
@@ -6896,7 +6896,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="2" t="s">
         <v>23</v>
@@ -6944,7 +6944,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="2" t="s">
         <v>24</v>
@@ -6992,7 +6992,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="2" t="s">
         <v>25</v>
@@ -7040,7 +7040,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>26</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="2" t="s">
         <v>28</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="2" t="s">
         <v>29</v>
@@ -7186,7 +7186,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="2" t="s">
         <v>30</v>
@@ -7234,7 +7234,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="2" t="s">
         <v>31</v>
@@ -7282,7 +7282,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>32</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="2" t="s">
         <v>34</v>
@@ -7380,7 +7380,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>35</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>41</v>
       </c>
@@ -7448,7 +7448,7 @@
       <c r="O134" s="9"/>
       <c r="P134" s="9"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>1</v>
       </c>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="P135" s="7"/>
     </row>
-    <row r="136" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="1" t="s">
@@ -7530,7 +7530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>13</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="2" t="s">
         <v>15</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="2" t="s">
         <v>16</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="2" t="s">
         <v>17</v>
@@ -7724,7 +7724,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="2" t="s">
         <v>18</v>
@@ -7772,7 +7772,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="2" t="s">
         <v>19</v>
@@ -7820,7 +7820,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>20</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="2" t="s">
         <v>22</v>
@@ -7918,7 +7918,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="2" t="s">
         <v>23</v>
@@ -7966,7 +7966,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="2" t="s">
         <v>24</v>
@@ -8014,7 +8014,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="2" t="s">
         <v>25</v>
@@ -8062,7 +8062,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>26</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="2" t="s">
         <v>28</v>
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="2" t="s">
         <v>29</v>
@@ -8208,7 +8208,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="2" t="s">
         <v>30</v>
@@ -8256,7 +8256,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="2" t="s">
         <v>31</v>
@@ -8304,7 +8304,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>32</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="2" t="s">
         <v>34</v>
@@ -8402,7 +8402,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>35</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>42</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="O156" s="9"/>
       <c r="P156" s="9"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>1</v>
       </c>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="P157" s="7"/>
     </row>
-    <row r="158" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="1" t="s">
@@ -8552,7 +8552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>13</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="2" t="s">
         <v>15</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="2" t="s">
         <v>16</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="2" t="s">
         <v>17</v>
@@ -8746,7 +8746,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="2" t="s">
         <v>18</v>
@@ -8794,7 +8794,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="2" t="s">
         <v>19</v>
@@ -8842,7 +8842,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>20</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="2" t="s">
         <v>22</v>
@@ -8940,7 +8940,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="2" t="s">
         <v>23</v>
@@ -8988,7 +8988,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="2" t="s">
         <v>24</v>
@@ -9036,7 +9036,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="2" t="s">
         <v>25</v>
@@ -9084,7 +9084,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>26</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="2" t="s">
         <v>28</v>
@@ -9182,7 +9182,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="2" t="s">
         <v>29</v>
@@ -9230,7 +9230,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="2" t="s">
         <v>30</v>
@@ -9278,7 +9278,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="2" t="s">
         <v>31</v>
@@ -9326,7 +9326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>32</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="2" t="s">
         <v>34</v>
@@ -9424,7 +9424,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>35</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>43</v>
       </c>
@@ -9492,7 +9492,7 @@
       <c r="O178" s="9"/>
       <c r="P178" s="9"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>1</v>
       </c>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="P179" s="7"/>
     </row>
-    <row r="180" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="1" t="s">
@@ -9574,7 +9574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>13</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="2" t="s">
         <v>15</v>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="2" t="s">
         <v>16</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="2" t="s">
         <v>17</v>
@@ -9768,7 +9768,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="2" t="s">
         <v>18</v>
@@ -9816,7 +9816,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="2" t="s">
         <v>19</v>
@@ -9864,7 +9864,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>20</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="2" t="s">
         <v>22</v>
@@ -9962,7 +9962,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="2" t="s">
         <v>23</v>
@@ -10010,7 +10010,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="2" t="s">
         <v>24</v>
@@ -10058,7 +10058,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="2" t="s">
         <v>25</v>
@@ -10106,7 +10106,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>26</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="2" t="s">
         <v>28</v>
@@ -10204,7 +10204,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="2" t="s">
         <v>29</v>
@@ -10252,7 +10252,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="2" t="s">
         <v>30</v>
@@ -10300,7 +10300,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="2" t="s">
         <v>31</v>
@@ -10348,7 +10348,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>32</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="2" t="s">
         <v>34</v>
@@ -10446,7 +10446,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>35</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>44</v>
       </c>
@@ -10514,7 +10514,7 @@
       <c r="O200" s="9"/>
       <c r="P200" s="9"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>1</v>
       </c>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="P201" s="7"/>
     </row>
-    <row r="202" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="1" t="s">
@@ -10596,7 +10596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>13</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="2" t="s">
         <v>15</v>
@@ -10694,7 +10694,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="2" t="s">
         <v>16</v>
@@ -10742,7 +10742,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="2" t="s">
         <v>17</v>
@@ -10790,7 +10790,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="2" t="s">
         <v>18</v>
@@ -10838,7 +10838,7 @@
         <v>95.98</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="2" t="s">
         <v>19</v>
@@ -10886,7 +10886,7 @@
         <v>14.44</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>20</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
       <c r="B210" s="2" t="s">
         <v>22</v>
@@ -10984,7 +10984,7 @@
         <v>149.91</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
       <c r="B211" s="2" t="s">
         <v>23</v>
@@ -11032,7 +11032,7 @@
         <v>580.41999999999996</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="2" t="s">
         <v>24</v>
@@ -11080,7 +11080,7 @@
         <v>703.34</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="2" t="s">
         <v>25</v>
@@ -11128,7 +11128,7 @@
         <v>54.95</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>26</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="2" t="s">
         <v>28</v>
@@ -11226,7 +11226,7 @@
         <v>140.27000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="2" t="s">
         <v>29</v>
@@ -11274,7 +11274,7 @@
         <v>1899.95</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="2" t="s">
         <v>30</v>
@@ -11322,7 +11322,7 @@
         <v>207.6</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
       <c r="B218" s="2" t="s">
         <v>31</v>
@@ -11370,7 +11370,7 @@
         <v>547.74</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>32</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="2" t="s">
         <v>34</v>
@@ -11468,7 +11468,7 @@
         <v>169.62</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>35</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>4588.6000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>45</v>
       </c>
@@ -11536,7 +11536,7 @@
       <c r="O222" s="9"/>
       <c r="P222" s="9"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>1</v>
       </c>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="P223" s="7"/>
     </row>
-    <row r="224" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="1" t="s">
@@ -11618,7 +11618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>13</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
       <c r="B226" s="2" t="s">
         <v>15</v>
@@ -11716,7 +11716,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
       <c r="B227" s="2" t="s">
         <v>16</v>
@@ -11764,7 +11764,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
       <c r="B228" s="2" t="s">
         <v>17</v>
@@ -11812,7 +11812,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
       <c r="B229" s="2" t="s">
         <v>18</v>
@@ -11860,7 +11860,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
       <c r="B230" s="2" t="s">
         <v>19</v>
@@ -11908,7 +11908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>20</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="2" t="s">
         <v>22</v>
@@ -12006,7 +12006,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
       <c r="B233" s="2" t="s">
         <v>23</v>
@@ -12054,7 +12054,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="2" t="s">
         <v>24</v>
@@ -12102,7 +12102,7 @@
         <v>772.5</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="2" t="s">
         <v>25</v>
@@ -12150,7 +12150,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>26</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
       <c r="B237" s="2" t="s">
         <v>28</v>
@@ -12248,7 +12248,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
       <c r="B238" s="2" t="s">
         <v>29</v>
@@ -12296,7 +12296,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
       <c r="B239" s="2" t="s">
         <v>30</v>
@@ -12344,7 +12344,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
       <c r="B240" s="2" t="s">
         <v>31</v>
@@ -12392,7 +12392,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>32</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
       <c r="B242" s="2" t="s">
         <v>34</v>
@@ -12490,7 +12490,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>35</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>5500.5</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>46</v>
       </c>
@@ -12558,7 +12558,7 @@
       <c r="O244" s="9"/>
       <c r="P244" s="9"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>1</v>
       </c>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="P245" s="7"/>
     </row>
-    <row r="246" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="1" t="s">
@@ -12640,7 +12640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>13</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
       <c r="B248" s="2" t="s">
         <v>15</v>
@@ -12738,7 +12738,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
       <c r="B249" s="2" t="s">
         <v>16</v>
@@ -12786,7 +12786,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
       <c r="B250" s="2" t="s">
         <v>17</v>
@@ -12834,7 +12834,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
       <c r="B251" s="2" t="s">
         <v>18</v>
@@ -12882,7 +12882,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
       <c r="B252" s="2" t="s">
         <v>19</v>
@@ -12930,7 +12930,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>20</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
       <c r="B254" s="2" t="s">
         <v>22</v>
@@ -13028,7 +13028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
       <c r="B255" s="2" t="s">
         <v>23</v>
@@ -13076,7 +13076,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
       <c r="B256" s="2" t="s">
         <v>24</v>
@@ -13124,7 +13124,7 @@
         <v>813.5</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
       <c r="B257" s="2" t="s">
         <v>25</v>
@@ -13172,7 +13172,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>26</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
       <c r="B259" s="2" t="s">
         <v>28</v>
@@ -13270,7 +13270,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
       <c r="B260" s="2" t="s">
         <v>29</v>
@@ -13318,7 +13318,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
       <c r="B261" s="2" t="s">
         <v>30</v>
@@ -13366,7 +13366,7 @@
         <v>244.5</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
       <c r="B262" s="2" t="s">
         <v>31</v>
@@ -13414,7 +13414,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>32</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
       <c r="B264" s="2" t="s">
         <v>34</v>
@@ -13512,7 +13512,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>35</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>5956.5</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>47</v>
       </c>
@@ -13580,7 +13580,7 @@
       <c r="O266" s="9"/>
       <c r="P266" s="9"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>1</v>
       </c>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="P267" s="7"/>
     </row>
-    <row r="268" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="1" t="s">
@@ -13662,7 +13662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>13</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
       <c r="B270" s="2" t="s">
         <v>15</v>
@@ -13760,7 +13760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
       <c r="B271" s="2" t="s">
         <v>16</v>
@@ -13808,7 +13808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
       <c r="B272" s="2" t="s">
         <v>17</v>
@@ -13856,7 +13856,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
       <c r="B273" s="2" t="s">
         <v>18</v>
@@ -13904,7 +13904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
       <c r="B274" s="2" t="s">
         <v>19</v>
@@ -13952,7 +13952,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>20</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
       <c r="B276" s="2" t="s">
         <v>22</v>
@@ -14050,7 +14050,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
       <c r="B277" s="2" t="s">
         <v>23</v>
@@ -14098,7 +14098,7 @@
         <v>625.5</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
       <c r="B278" s="2" t="s">
         <v>24</v>
@@ -14146,7 +14146,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
       <c r="B279" s="2" t="s">
         <v>25</v>
@@ -14194,7 +14194,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>26</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
       <c r="B281" s="2" t="s">
         <v>28</v>
@@ -14292,7 +14292,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
       <c r="B282" s="2" t="s">
         <v>29</v>
@@ -14340,7 +14340,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
       <c r="B283" s="2" t="s">
         <v>30</v>
@@ -14388,7 +14388,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
       <c r="B284" s="2" t="s">
         <v>31</v>
@@ -14436,7 +14436,7 @@
         <v>751.5</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>32</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
       <c r="B286" s="2" t="s">
         <v>34</v>
@@ -14534,7 +14534,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="8" t="s">
         <v>35</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>5884.5</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>48</v>
       </c>
@@ -14602,7 +14602,7 @@
       <c r="O288" s="9"/>
       <c r="P288" s="9"/>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>1</v>
       </c>
@@ -14638,7 +14638,7 @@
       </c>
       <c r="P289" s="7"/>
     </row>
-    <row r="290" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="1" t="s">
@@ -14684,7 +14684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>13</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
       <c r="B292" s="2" t="s">
         <v>15</v>
@@ -14782,7 +14782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
       <c r="B293" s="2" t="s">
         <v>16</v>
@@ -14830,7 +14830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
       <c r="B294" s="2" t="s">
         <v>17</v>
@@ -14878,7 +14878,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
       <c r="B295" s="2" t="s">
         <v>18</v>
@@ -14926,7 +14926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
       <c r="B296" s="2" t="s">
         <v>19</v>
@@ -14974,7 +14974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>20</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="7"/>
       <c r="B298" s="2" t="s">
         <v>22</v>
@@ -15072,7 +15072,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="7"/>
       <c r="B299" s="2" t="s">
         <v>23</v>
@@ -15120,7 +15120,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="7"/>
       <c r="B300" s="2" t="s">
         <v>24</v>
@@ -15168,7 +15168,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="7"/>
       <c r="B301" s="2" t="s">
         <v>25</v>
@@ -15216,7 +15216,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>26</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" s="7"/>
       <c r="B303" s="2" t="s">
         <v>28</v>
@@ -15314,7 +15314,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" s="7"/>
       <c r="B304" s="2" t="s">
         <v>29</v>
@@ -15362,7 +15362,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" s="7"/>
       <c r="B305" s="2" t="s">
         <v>30</v>
@@ -15410,7 +15410,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
       <c r="B306" s="2" t="s">
         <v>31</v>
@@ -15458,7 +15458,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>32</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" s="7"/>
       <c r="B308" s="2" t="s">
         <v>34</v>
@@ -15556,7 +15556,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
         <v>35</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>4882</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>49</v>
       </c>
@@ -15624,7 +15624,7 @@
       <c r="O310" s="9"/>
       <c r="P310" s="9"/>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>1</v>
       </c>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="P311" s="7"/>
     </row>
-    <row r="312" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="1" t="s">
@@ -15706,7 +15706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>13</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="7"/>
       <c r="B314" s="2" t="s">
         <v>15</v>
@@ -15804,7 +15804,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="7"/>
       <c r="B315" s="2" t="s">
         <v>16</v>
@@ -15852,7 +15852,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" s="7"/>
       <c r="B316" s="2" t="s">
         <v>17</v>
@@ -15900,7 +15900,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
       <c r="B317" s="2" t="s">
         <v>18</v>
@@ -15948,7 +15948,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" s="7"/>
       <c r="B318" s="2" t="s">
         <v>19</v>
@@ -15996,7 +15996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>20</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="7"/>
       <c r="B320" s="2" t="s">
         <v>22</v>
@@ -16094,7 +16094,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="7"/>
       <c r="B321" s="2" t="s">
         <v>23</v>
@@ -16142,7 +16142,7 @@
         <v>569.5</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="7"/>
       <c r="B322" s="2" t="s">
         <v>24</v>
@@ -16190,7 +16190,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
       <c r="B323" s="2" t="s">
         <v>25</v>
@@ -16238,7 +16238,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>26</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
       <c r="B325" s="2" t="s">
         <v>28</v>
@@ -16336,7 +16336,7 @@
         <v>186.5</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="7"/>
       <c r="B326" s="2" t="s">
         <v>29</v>
@@ -16384,7 +16384,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="7"/>
       <c r="B327" s="2" t="s">
         <v>30</v>
@@ -16432,7 +16432,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="7"/>
       <c r="B328" s="2" t="s">
         <v>31</v>
@@ -16480,7 +16480,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>32</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" s="7"/>
       <c r="B330" s="2" t="s">
         <v>34</v>
@@ -16578,7 +16578,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>35</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>50</v>
       </c>
@@ -16646,7 +16646,7 @@
       <c r="O332" s="9"/>
       <c r="P332" s="9"/>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>1</v>
       </c>
@@ -16682,7 +16682,7 @@
       </c>
       <c r="P333" s="7"/>
     </row>
-    <row r="334" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="1" t="s">
@@ -16728,7 +16728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>13</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" s="7"/>
       <c r="B336" s="2" t="s">
         <v>15</v>
@@ -16826,7 +16826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="7"/>
       <c r="B337" s="2" t="s">
         <v>16</v>
@@ -16874,7 +16874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="7"/>
       <c r="B338" s="2" t="s">
         <v>17</v>
@@ -16922,7 +16922,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="7"/>
       <c r="B339" s="2" t="s">
         <v>18</v>
@@ -16970,7 +16970,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="7"/>
       <c r="B340" s="2" t="s">
         <v>19</v>
@@ -17018,7 +17018,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>20</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="7"/>
       <c r="B342" s="2" t="s">
         <v>22</v>
@@ -17116,7 +17116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="7"/>
       <c r="B343" s="2" t="s">
         <v>23</v>
@@ -17164,7 +17164,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" s="7"/>
       <c r="B344" s="2" t="s">
         <v>24</v>
@@ -17212,7 +17212,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" s="7"/>
       <c r="B345" s="2" t="s">
         <v>25</v>
@@ -17260,7 +17260,7 @@
         <v>140.5</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>26</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="7"/>
       <c r="B347" s="2" t="s">
         <v>28</v>
@@ -17358,7 +17358,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" s="7"/>
       <c r="B348" s="2" t="s">
         <v>29</v>
@@ -17406,7 +17406,7 @@
         <v>1704.5</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" s="7"/>
       <c r="B349" s="2" t="s">
         <v>30</v>
@@ -17454,7 +17454,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" s="7"/>
       <c r="B350" s="2" t="s">
         <v>31</v>
@@ -17502,7 +17502,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>32</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="7"/>
       <c r="B352" s="2" t="s">
         <v>34</v>
@@ -17600,7 +17600,7 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
         <v>35</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>5061.5</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>51</v>
       </c>
@@ -17668,7 +17668,7 @@
       <c r="O354" s="9"/>
       <c r="P354" s="9"/>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>1</v>
       </c>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="P355" s="7"/>
     </row>
-    <row r="356" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="1" t="s">
@@ -17750,7 +17750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>13</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="7"/>
       <c r="B358" s="2" t="s">
         <v>15</v>
@@ -17848,7 +17848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="7"/>
       <c r="B359" s="2" t="s">
         <v>16</v>
@@ -17896,7 +17896,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="7"/>
       <c r="B360" s="2" t="s">
         <v>17</v>
@@ -17944,7 +17944,7 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="7"/>
       <c r="B361" s="2" t="s">
         <v>18</v>
@@ -17992,7 +17992,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="7"/>
       <c r="B362" s="2" t="s">
         <v>19</v>
@@ -18040,7 +18040,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>20</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" s="7"/>
       <c r="B364" s="2" t="s">
         <v>22</v>
@@ -18138,7 +18138,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" s="7"/>
       <c r="B365" s="2" t="s">
         <v>23</v>
@@ -18186,7 +18186,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" s="7"/>
       <c r="B366" s="2" t="s">
         <v>24</v>
@@ -18234,7 +18234,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" s="7"/>
       <c r="B367" s="2" t="s">
         <v>25</v>
@@ -18282,7 +18282,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>26</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" s="7"/>
       <c r="B369" s="2" t="s">
         <v>28</v>
@@ -18380,7 +18380,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" s="7"/>
       <c r="B370" s="2" t="s">
         <v>29</v>
@@ -18428,7 +18428,7 @@
         <v>1696.5</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" s="7"/>
       <c r="B371" s="2" t="s">
         <v>30</v>
@@ -18476,7 +18476,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" s="7"/>
       <c r="B372" s="2" t="s">
         <v>31</v>
@@ -18524,7 +18524,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>32</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" s="7"/>
       <c r="B374" s="2" t="s">
         <v>34</v>
@@ -18622,7 +18622,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" s="8" t="s">
         <v>35</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>5052.5</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
         <v>52</v>
       </c>
@@ -18690,7 +18690,7 @@
       <c r="O376" s="9"/>
       <c r="P376" s="9"/>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>1</v>
       </c>
@@ -18726,7 +18726,7 @@
       </c>
       <c r="P377" s="7"/>
     </row>
-    <row r="378" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="1" t="s">
@@ -18772,7 +18772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>13</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" s="7"/>
       <c r="B380" s="2" t="s">
         <v>15</v>
@@ -18870,7 +18870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" s="7"/>
       <c r="B381" s="2" t="s">
         <v>16</v>
@@ -18918,7 +18918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" s="7"/>
       <c r="B382" s="2" t="s">
         <v>17</v>
@@ -18966,7 +18966,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" s="7"/>
       <c r="B383" s="2" t="s">
         <v>18</v>
@@ -19014,7 +19014,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" s="7"/>
       <c r="B384" s="2" t="s">
         <v>19</v>
@@ -19062,7 +19062,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
         <v>20</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" s="7"/>
       <c r="B386" s="2" t="s">
         <v>22</v>
@@ -19160,7 +19160,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" s="7"/>
       <c r="B387" s="2" t="s">
         <v>23</v>
@@ -19208,7 +19208,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" s="7"/>
       <c r="B388" s="2" t="s">
         <v>24</v>
@@ -19256,7 +19256,7 @@
         <v>658.5</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="7"/>
       <c r="B389" s="2" t="s">
         <v>25</v>
@@ -19304,7 +19304,7 @@
         <v>193.5</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
         <v>26</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" s="7"/>
       <c r="B391" s="2" t="s">
         <v>28</v>
@@ -19402,7 +19402,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" s="7"/>
       <c r="B392" s="2" t="s">
         <v>29</v>
@@ -19450,7 +19450,7 @@
         <v>1663.5</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" s="7"/>
       <c r="B393" s="2" t="s">
         <v>30</v>
@@ -19498,7 +19498,7 @@
         <v>284.5</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" s="7"/>
       <c r="B394" s="2" t="s">
         <v>31</v>
@@ -19546,7 +19546,7 @@
         <v>759.5</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>32</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" s="7"/>
       <c r="B396" s="2" t="s">
         <v>34</v>
@@ -19644,7 +19644,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" s="8" t="s">
         <v>35</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
         <v>53</v>
       </c>
@@ -19712,7 +19712,7 @@
       <c r="O398" s="9"/>
       <c r="P398" s="9"/>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
         <v>1</v>
       </c>
@@ -19748,7 +19748,7 @@
       </c>
       <c r="P399" s="7"/>
     </row>
-    <row r="400" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="1" t="s">
@@ -19794,7 +19794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>13</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" s="7"/>
       <c r="B402" s="2" t="s">
         <v>15</v>
@@ -19892,7 +19892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" s="7"/>
       <c r="B403" s="2" t="s">
         <v>16</v>
@@ -19940,7 +19940,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" s="7"/>
       <c r="B404" s="2" t="s">
         <v>17</v>
@@ -19988,7 +19988,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" s="7"/>
       <c r="B405" s="2" t="s">
         <v>18</v>
@@ -20036,7 +20036,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" s="7"/>
       <c r="B406" s="2" t="s">
         <v>19</v>
@@ -20084,7 +20084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>20</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" s="7"/>
       <c r="B408" s="2" t="s">
         <v>22</v>
@@ -20182,7 +20182,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" s="7"/>
       <c r="B409" s="2" t="s">
         <v>23</v>
@@ -20230,7 +20230,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" s="7"/>
       <c r="B410" s="2" t="s">
         <v>24</v>
@@ -20278,7 +20278,7 @@
         <v>935.5</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" s="7"/>
       <c r="B411" s="2" t="s">
         <v>25</v>
@@ -20326,7 +20326,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>26</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" s="7"/>
       <c r="B413" s="2" t="s">
         <v>28</v>
@@ -20424,7 +20424,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A414" s="7"/>
       <c r="B414" s="2" t="s">
         <v>29</v>
@@ -20472,7 +20472,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A415" s="7"/>
       <c r="B415" s="2" t="s">
         <v>30</v>
@@ -20520,7 +20520,7 @@
         <v>346.5</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A416" s="7"/>
       <c r="B416" s="2" t="s">
         <v>31</v>
@@ -20568,7 +20568,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>32</v>
       </c>
@@ -20618,7 +20618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A418" s="7"/>
       <c r="B418" s="2" t="s">
         <v>34</v>
@@ -20666,7 +20666,7 @@
         <v>133.5</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A419" s="8" t="s">
         <v>35</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>5825</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
         <v>54</v>
       </c>
@@ -20734,7 +20734,7 @@
       <c r="O420" s="9"/>
       <c r="P420" s="9"/>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>1</v>
       </c>
@@ -20770,7 +20770,7 @@
       </c>
       <c r="P421" s="7"/>
     </row>
-    <row r="422" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="1" t="s">
@@ -20816,7 +20816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>13</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" s="7"/>
       <c r="B424" s="2" t="s">
         <v>15</v>
@@ -20914,7 +20914,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" s="7"/>
       <c r="B425" s="2" t="s">
         <v>16</v>
@@ -20962,7 +20962,7 @@
         <v>36.880000000000003</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A426" s="7"/>
       <c r="B426" s="2" t="s">
         <v>17</v>
@@ -21010,7 +21010,7 @@
         <v>167.41</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A427" s="7"/>
       <c r="B427" s="2" t="s">
         <v>18</v>
@@ -21058,7 +21058,7 @@
         <v>219.33</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A428" s="7"/>
       <c r="B428" s="2" t="s">
         <v>19</v>
@@ -21106,7 +21106,7 @@
         <v>123.74</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>20</v>
       </c>
@@ -21156,7 +21156,7 @@
         <v>73.27</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A430" s="7"/>
       <c r="B430" s="2" t="s">
         <v>22</v>
@@ -21204,7 +21204,7 @@
         <v>115.97</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A431" s="7"/>
       <c r="B431" s="2" t="s">
         <v>23</v>
@@ -21252,7 +21252,7 @@
         <v>753.59</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A432" s="7"/>
       <c r="B432" s="2" t="s">
         <v>24</v>
@@ -21300,7 +21300,7 @@
         <v>808.91</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" s="7"/>
       <c r="B433" s="2" t="s">
         <v>25</v>
@@ -21348,7 +21348,7 @@
         <v>255.73</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>26</v>
       </c>
@@ -21398,7 +21398,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" s="7"/>
       <c r="B435" s="2" t="s">
         <v>28</v>
@@ -21446,7 +21446,7 @@
         <v>494.47</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" s="7"/>
       <c r="B436" s="2" t="s">
         <v>29</v>
@@ -21494,7 +21494,7 @@
         <v>1414.98</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" s="7"/>
       <c r="B437" s="2" t="s">
         <v>30</v>
@@ -21542,7 +21542,7 @@
         <v>378.98</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" s="7"/>
       <c r="B438" s="2" t="s">
         <v>31</v>
@@ -21590,7 +21590,7 @@
         <v>766.69</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
         <v>32</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>31.06</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" s="7"/>
       <c r="B440" s="2" t="s">
         <v>34</v>
@@ -21688,7 +21688,7 @@
         <v>73.27</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441" s="8" t="s">
         <v>35</v>
       </c>
@@ -22047,7 +22047,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="2049" r:id="rId3" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -22057,9 +22057,9 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>586740</xdr:colOff>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -22081,9 +22081,9 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>9253</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -22287,7 +22287,7 @@
         <v>67.55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>123431</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>10663.4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>5349754</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -22559,7 +22559,7 @@
         <v>54567.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -22627,7 +22627,7 @@
         <v>89384</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -22763,7 +22763,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -22831,7 +22831,7 @@
         <v>359.04</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>94221</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>7908</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -23103,46 +23103,46 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
   </sheetData>
@@ -23156,13 +23156,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -23230,7 +23230,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>9253</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>67.55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>123431</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -23502,7 +23502,7 @@
         <v>10663.4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>5349754</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -23638,7 +23638,7 @@
         <v>54567.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>89384</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -23910,7 +23910,7 @@
         <v>359.04</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -23978,7 +23978,7 @@
         <v>94221</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -24046,7 +24046,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -24114,7 +24114,7 @@
         <v>7908</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -24182,7 +24182,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -24194,7 +24194,7 @@
         <v>7238561</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ref="D16:R16" si="0">SUM(D2,D4,D6,D8,D10,D12,D14)</f>
+        <f t="shared" ref="D16:V16" si="0">SUM(D2,D4,D6,D8,D10,D12,D14)</f>
         <v>7904740</v>
       </c>
       <c r="E16" s="5">
@@ -24254,23 +24254,23 @@
         <v>6166025</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" ref="S16:V16" si="1">SUM(S2,S4,S6,S8,S10,S12,S14)</f>
+        <f t="shared" si="0"/>
         <v>5846146</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5794772</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5736248</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5718833</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -24282,79 +24282,79 @@
         <v>109156.56000000001</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" ref="D17:R17" si="2">SUM(D3,D5,D7,D9,D11,D13,D15)</f>
+        <f t="shared" ref="D17:V17" si="1">SUM(D3,D5,D7,D9,D11,D13,D15)</f>
         <v>116708.91</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>117918.97</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>113782.58</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110128.06</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>108726.32999999999</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>107782.72</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>111147.09</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>111091.82</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>104825.92</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101163.37999999999</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73370.610000000015</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73818.53</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74987.290000000008</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72479.999999999985</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80767.150000000009</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" ref="S17:V17" si="3">SUM(S3,S5,S7,S9,S11,S13,S15)</f>
+        <f t="shared" si="1"/>
         <v>66788.12000000001</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>66557.66</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>65773.330000000016</v>
       </c>
       <c r="V17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>65742.859999999986</v>
       </c>
     </row>
